--- a/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run1_1.xlsx
+++ b/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run1_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlab\Documents\new_fmri\visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\blast\sl_fmri\shortened_fmri\modified_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>image</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>H.png</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>blanka.png</t>
   </si>
 </sst>
 </file>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,242 +908,482 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
